--- a/2015136092_이상현_마이크로프로세서_재료구매신청서(1분반).xlsx
+++ b/2015136092_이상현_마이크로프로세서_재료구매신청서(1분반).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\대학원\조교\2016년 2학기\마이크로프로세서\stu\2015136092\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,10 +134,6 @@
     </r>
   </si>
   <si>
-    <t>1개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이상현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,8 +166,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>18900</t>
+    <t xml:space="preserve">Nulsomino-HANA </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://roboholic1.godo.co.kr/shop/goods/goods_view.php?goodsno=6&amp;inflow=naver&amp;NaPm=ct%3Diu3gutf4%7Cci%3D8f3bd4d9be1833ad1198d0aac2146175b7309fcb%7Ctr%3Dslsl%7Csn%3D188145%7Chk%3D037e2e92d3d444577d58249d72ae3a78e5d757fc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.icbanq.com/P006971519</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2750</t>
     </r>
     <r>
       <rPr>
@@ -186,20 +194,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Nulsomino-HANA </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://roboholic1.godo.co.kr/shop/goods/goods_view.php?goodsno=6&amp;inflow=naver&amp;NaPm=ct%3Diu3gutf4%7Cci%3D8f3bd4d9be1833ad1198d0aac2146175b7309fcb%7Ctr%3Dslsl%7Csn%3D188145%7Chk%3D037e2e92d3d444577d58249d72ae3a78e5d757fc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.icbanq.com/P006971519</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2750</t>
+    <r>
+      <t>7000</t>
     </r>
     <r>
       <rPr>
@@ -213,28 +209,12 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <r>
-      <t>7000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="함초롬바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>원</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -828,18 +808,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="3" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="33.625" customWidth="1"/>
     <col min="7" max="7" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -852,12 +832,12 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -865,7 +845,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -878,12 +858,12 @@
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -891,12 +871,12 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -904,7 +884,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -927,7 +907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="126.75" customHeight="1">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -935,19 +915,19 @@
         <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2750</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="126.75" customHeight="1">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -955,40 +935,40 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>7000</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="126.75" customHeight="1">
       <c r="A9" s="2">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>18900</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="65.25" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -996,12 +976,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="1">
-        <v>28650</v>
+        <f>SUM(E7:E9)*2</f>
+        <v>57300</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="65.25" hidden="1" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1010,7 +991,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="65.25" hidden="1" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1019,7 +1000,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="65.25" hidden="1" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1028,7 +1009,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="65.25" hidden="1" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1037,7 +1018,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="65.25" hidden="1" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1046,7 +1027,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="65.25" hidden="1" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1055,7 +1036,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="65.25" hidden="1" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>

--- a/2015136092_이상현_마이크로프로세서_재료구매신청서(1분반).xlsx
+++ b/2015136092_이상현_마이크로프로세서_재료구매신청서(1분반).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,12 +209,18 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>점퍼선은
+필요
+없나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,8 +260,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +280,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -330,15 +349,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -366,8 +388,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -806,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -819,7 +848,7 @@
     <col min="7" max="7" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -832,7 +861,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -845,7 +874,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -858,7 +887,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -871,7 +900,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -884,7 +913,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -907,7 +936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="126.75" customHeight="1">
+    <row r="7" spans="1:8" ht="126.75" customHeight="1">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -926,8 +955,11 @@
       <c r="F7" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="126.75" customHeight="1">
+      <c r="H7" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="126.75" customHeight="1">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -946,8 +978,9 @@
       <c r="F8" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="126.75" customHeight="1">
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="126.75" customHeight="1">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -967,8 +1000,9 @@
         <v>19</v>
       </c>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="65.25" customHeight="1">
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="65.25" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -981,8 +1015,9 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="65.25" hidden="1" customHeight="1">
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="65.25" hidden="1" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -991,7 +1026,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="65.25" hidden="1" customHeight="1">
+    <row r="12" spans="1:8" ht="65.25" hidden="1" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1000,7 +1035,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="65.25" hidden="1" customHeight="1">
+    <row r="13" spans="1:8" ht="65.25" hidden="1" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1009,7 +1044,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="65.25" hidden="1" customHeight="1">
+    <row r="14" spans="1:8" ht="65.25" hidden="1" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1018,7 +1053,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="65.25" hidden="1" customHeight="1">
+    <row r="15" spans="1:8" ht="65.25" hidden="1" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1027,7 +1062,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="65.25" hidden="1" customHeight="1">
+    <row r="16" spans="1:8" ht="65.25" hidden="1" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
